--- a/memos/20210805 Data Dictionary.xlsx
+++ b/memos/20210805 Data Dictionary.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Capital Bikeshare Trips (2015-2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Capital Bikeshare Flows (2015-2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -68,6 +69,109 @@
   </si>
   <si>
     <t xml:space="preserve">Member type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character string that uniquely identifies the station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nTrips</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The total number of trips recorded from </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">startNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">endNAME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by month. Flows are rarely symmetric.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geodesic distance (kilometers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip duration (seconds). This is calculated separately for trips from A to B and from B to A and is rarely symmetrical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSRM Routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip distance (kilometers). This is calculated separately for trips from A to B and from B to A and is rarely symmetrical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startNTrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of trips leaving from the originating station by month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endNTrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of trips arriving at the destination station by month</t>
   </si>
 </sst>
 </file>
@@ -77,11 +181,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +208,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,15 +288,17 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.22"/>
   </cols>
   <sheetData>
@@ -312,4 +427,152 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="97.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/memos/20210805 Data Dictionary.xlsx
+++ b/memos/20210805 Data Dictionary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -177,7 +177,13 @@
     <t xml:space="preserve">dist_joules</t>
   </si>
   <si>
-    <t xml:space="preserve">Total energy required for an average rider to bike between the stations.</t>
+    <t xml:space="preserve">Total energy required for an average rider to bike between the stations (Joules)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_cal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total energy required for an average rider to bike between the stations (Calories)</t>
   </si>
   <si>
     <t xml:space="preserve">dElevation</t>
@@ -355,12 +361,12 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -495,18 +501,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>35</v>
       </c>
@@ -638,7 +644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
@@ -646,7 +652,18 @@
         <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
